--- a/Planning/Gantt Chart.xlsx
+++ b/Planning/Gantt Chart.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_C3E7FFCE2189979B3512E7E95A538CE907636C9E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{268E2F42-4B6E-0248-A0FF-F903AEC74CB1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="25245" windowHeight="17505"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <definedName name="task_start" localSheetId="0">ProjectSchedule!$E1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +32,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>The Display Week in cell E4  represents the starting week to display in the project schedule in cell I4. The project start date is considered Week 1. To change the display week, simply enter a new week number in cell E4.
 The starting date for each week, starting with the display week from cell E4, starts in cell I4 and is auto calculated. There are 8 weeks represented in this view from cell I4 through cell BF4.
@@ -117,9 +120,6 @@
 TO</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>PROGRESS</t>
   </si>
   <si>
@@ -221,18 +221,9 @@
     <t>Cardboard mock-up</t>
   </si>
   <si>
-    <t>Determine block detection system</t>
-  </si>
-  <si>
-    <t>Determine block sorting method</t>
-  </si>
-  <si>
     <t>Determine which wheels/servos will be needed</t>
   </si>
   <si>
-    <t>Determine sensors needed for location/line-following</t>
-  </si>
-  <si>
     <t>Integration together</t>
   </si>
   <si>
@@ -273,17 +264,35 @@
   </si>
   <si>
     <t>Testing feasibility of different means of detection</t>
+  </si>
+  <si>
+    <t>Get the line sensors to work</t>
+  </si>
+  <si>
+    <t>Get the robot to follow a line reliably using the line sensors</t>
+  </si>
+  <si>
+    <t>Determine how the robot will detect and sort blocks</t>
+  </si>
+  <si>
+    <t>Program Motor Control</t>
+  </si>
+  <si>
+    <t>Program route around table</t>
+  </si>
+  <si>
+    <t>CAD for various components</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="8">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="ddd\,\ dd/mm/yyyy"/>
     <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
     <numFmt numFmtId="168" formatCode="d"/>
@@ -999,7 +1008,7 @@
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -1021,9 +1030,9 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1062,7 +1071,7 @@
     <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1285,6 +1294,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1297,7 +1309,10 @@
     <xf numFmtId="169" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="12" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -1333,7 +1348,7 @@
     <cellStyle name="Comma [0]" xfId="14" builtinId="6" customBuiltin="1"/>
     <cellStyle name="Currency" xfId="15" builtinId="4" customBuiltin="1"/>
     <cellStyle name="Currency [0]" xfId="16" builtinId="7" customBuiltin="1"/>
-    <cellStyle name="Date" xfId="10"/>
+    <cellStyle name="Date" xfId="10" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
     <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" customBuiltin="1"/>
     <cellStyle name="Good" xfId="18" builtinId="26" customBuiltin="1"/>
@@ -1344,18 +1359,18 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Input" xfId="21" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="24" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Name" xfId="11"/>
+    <cellStyle name="Name" xfId="11" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="Neutral" xfId="20" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="27" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="22" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Project Start" xfId="9"/>
-    <cellStyle name="Task" xfId="12"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Project Start" xfId="9" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Task" xfId="12" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="29" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="26" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="zHiddenText" xfId="3"/>
+    <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -1513,7 +1528,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="ToDoList" pivot="0" count="9">
+    <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -1933,214 +1948,210 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI34"/>
+  <dimension ref="A1:AI37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="62" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL18" sqref="AL18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="40" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="35" width="3.85546875" customWidth="1"/>
-    <col min="40" max="41" width="10.28515625"/>
+    <col min="1" max="1" width="2.6640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="35" width="3.83203125" customWidth="1"/>
+    <col min="40" max="41" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>35</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>36</v>
       </c>
       <c r="D1" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="80">
-        <f ca="1">TODAY()</f>
+      <c r="E1" s="81">
         <v>44868</v>
       </c>
-      <c r="F1" s="80"/>
-      <c r="H1" s="81">
-        <f ca="1">H2</f>
+      <c r="F1" s="81"/>
+      <c r="H1" s="82">
+        <f>H2</f>
         <v>44868</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="81">
-        <f ca="1">O2</f>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="82">
+        <f>O2</f>
         <v>44875</v>
       </c>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="81">
-        <f ca="1">V2</f>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="82">
+        <f>V2</f>
         <v>44882</v>
       </c>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="81">
-        <f ca="1">AC2</f>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="82">
+        <f>AC2</f>
         <v>44889</v>
       </c>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="82"/>
-      <c r="AG1" s="82"/>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="83"/>
-    </row>
-    <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="84"/>
+    </row>
+    <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
       </c>
       <c r="C2" s="59"/>
       <c r="D2" s="59"/>
       <c r="E2" s="59"/>
       <c r="F2" s="59"/>
       <c r="H2" s="76">
-        <f ca="1">Project_Start</f>
+        <f>Project_Start</f>
         <v>44868</v>
       </c>
       <c r="I2" s="77">
-        <f ca="1">H2+1</f>
+        <f>H2+1</f>
         <v>44869</v>
       </c>
       <c r="J2" s="77">
-        <f t="shared" ref="J2:AI2" ca="1" si="0">I2+1</f>
+        <f t="shared" ref="J2:AI2" si="0">I2+1</f>
         <v>44870</v>
       </c>
       <c r="K2" s="77">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44871</v>
       </c>
       <c r="L2" s="77">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44872</v>
       </c>
       <c r="M2" s="77">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44873</v>
       </c>
       <c r="N2" s="78">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44874</v>
       </c>
       <c r="O2" s="76">
-        <f ca="1">N2+1</f>
+        <f>N2+1</f>
         <v>44875</v>
       </c>
       <c r="P2" s="77">
-        <f ca="1">O2+1</f>
+        <f>O2+1</f>
         <v>44876</v>
       </c>
       <c r="Q2" s="77">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44877</v>
       </c>
       <c r="R2" s="77">
-        <f ca="1">Q2+1</f>
+        <f>Q2+1</f>
         <v>44878</v>
       </c>
       <c r="S2" s="77">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44879</v>
       </c>
       <c r="T2" s="77">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44880</v>
       </c>
       <c r="U2" s="78">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44881</v>
       </c>
       <c r="V2" s="76">
-        <f ca="1">U2+1</f>
+        <f>U2+1</f>
         <v>44882</v>
       </c>
       <c r="W2" s="77">
-        <f ca="1">V2+1</f>
+        <f>V2+1</f>
         <v>44883</v>
       </c>
       <c r="X2" s="77">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44884</v>
       </c>
       <c r="Y2" s="77">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44885</v>
       </c>
       <c r="Z2" s="77">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44886</v>
       </c>
       <c r="AA2" s="77">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44887</v>
       </c>
       <c r="AB2" s="78">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44888</v>
       </c>
       <c r="AC2" s="76">
-        <f ca="1">AB2+1</f>
+        <f>AB2+1</f>
         <v>44889</v>
       </c>
       <c r="AD2" s="77">
-        <f ca="1">AC2+1</f>
+        <f>AC2+1</f>
         <v>44890</v>
       </c>
       <c r="AE2" s="77">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44891</v>
       </c>
       <c r="AF2" s="77">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44892</v>
       </c>
       <c r="AG2" s="77">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44893</v>
       </c>
       <c r="AH2" s="77">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44894</v>
       </c>
       <c r="AI2" s="78">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>44895</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
         <v>2</v>
       </c>
@@ -2151,131 +2162,131 @@
         <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="H3" s="6" t="str">
-        <f t="shared" ref="H3" ca="1" si="1">LEFT(TEXT(H2,"ddd"),1)</f>
+        <f t="shared" ref="H3" si="1">LEFT(TEXT(H2,"ddd"),1)</f>
         <v>T</v>
       </c>
       <c r="I3" s="6" t="str">
-        <f t="shared" ref="I3:AI3" ca="1" si="2">LEFT(TEXT(I2,"ddd"),1)</f>
+        <f t="shared" ref="I3:AI3" si="2">LEFT(TEXT(I2,"ddd"),1)</f>
         <v>F</v>
       </c>
       <c r="J3" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="K3" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="L3" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>M</v>
       </c>
       <c r="M3" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>T</v>
       </c>
       <c r="N3" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>W</v>
       </c>
       <c r="O3" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>T</v>
       </c>
       <c r="P3" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="Q3" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="R3" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="S3" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>M</v>
       </c>
       <c r="T3" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>T</v>
       </c>
       <c r="U3" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>W</v>
       </c>
       <c r="V3" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>T</v>
       </c>
       <c r="W3" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="X3" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="Y3" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="Z3" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>M</v>
       </c>
       <c r="AA3" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>T</v>
       </c>
       <c r="AB3" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>W</v>
       </c>
       <c r="AC3" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>T</v>
       </c>
       <c r="AD3" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>F</v>
       </c>
       <c r="AE3" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AF3" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="AG3" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>M</v>
       </c>
       <c r="AH3" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>T</v>
       </c>
       <c r="AI3" s="6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2"/>
         <v>W</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
@@ -2314,21 +2325,21 @@
       <c r="AH4" s="27"/>
       <c r="AI4" s="27"/>
     </row>
-    <row r="5" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="61"/>
       <c r="F5" s="62"/>
       <c r="G5" s="10" t="str">
-        <f t="shared" ref="G5:G31" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="G5:G34" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="H5" s="27"/>
@@ -2360,29 +2371,27 @@
       <c r="AH5" s="27"/>
       <c r="AI5" s="27"/>
     </row>
-    <row r="6" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>15</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C6" s="47"/>
       <c r="D6" s="13">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="E6" s="63">
-        <f ca="1">Project_Start</f>
+        <f>Project_Start</f>
         <v>44868</v>
       </c>
       <c r="F6" s="63">
-        <f ca="1">E6+3</f>
+        <f>E6+3</f>
         <v>44871</v>
       </c>
       <c r="G6" s="10">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H6" s="27"/>
@@ -2414,16 +2423,16 @@
       <c r="AH6" s="27"/>
       <c r="AI6" s="27"/>
     </row>
-    <row r="7" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="47"/>
       <c r="D7" s="13">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="E7" s="63">
         <v>44868</v>
@@ -2464,26 +2473,22 @@
       <c r="AH7" s="27"/>
       <c r="AI7" s="27"/>
     </row>
-    <row r="8" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
+    <row r="8" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
       <c r="B8" s="55" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C8" s="47"/>
       <c r="D8" s="13">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E8" s="63">
-        <v>44871</v>
+        <v>44868</v>
       </c>
       <c r="F8" s="63">
-        <f>E8+4</f>
-        <v>44875</v>
-      </c>
-      <c r="G8" s="10">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
+        <v>44873</v>
+      </c>
+      <c r="G8" s="10"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
       <c r="J8" s="27"/>
@@ -2496,8 +2501,8 @@
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
       <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
       <c r="V8" s="27"/>
       <c r="W8" s="27"/>
       <c r="X8" s="27"/>
@@ -2513,26 +2518,22 @@
       <c r="AH8" s="27"/>
       <c r="AI8" s="27"/>
     </row>
-    <row r="9" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
+    <row r="9" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
       <c r="B9" s="55" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="47"/>
       <c r="D9" s="13">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E9" s="63">
-        <v>44871</v>
+        <v>44872</v>
       </c>
       <c r="F9" s="63">
-        <f>E9+5</f>
-        <v>44876</v>
-      </c>
-      <c r="G9" s="10">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
+        <v>44874</v>
+      </c>
+      <c r="G9" s="10"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
@@ -2545,11 +2546,11 @@
       <c r="Q9" s="27"/>
       <c r="R9" s="27"/>
       <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
       <c r="V9" s="27"/>
       <c r="W9" s="27"/>
-      <c r="X9" s="28"/>
+      <c r="X9" s="27"/>
       <c r="Y9" s="27"/>
       <c r="Z9" s="27"/>
       <c r="AA9" s="27"/>
@@ -2562,27 +2563,22 @@
       <c r="AH9" s="27"/>
       <c r="AI9" s="27"/>
     </row>
-    <row r="10" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-      <c r="B10" s="55" t="s">
-        <v>47</v>
+    <row r="10" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="86" t="s">
+        <v>67</v>
       </c>
       <c r="C10" s="47"/>
       <c r="D10" s="13">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E10" s="63">
-        <f>E7+1</f>
-        <v>44869</v>
+        <v>44872</v>
       </c>
       <c r="F10" s="63">
-        <f>E10+2</f>
-        <v>44871</v>
-      </c>
-      <c r="G10" s="10">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
+        <v>44876</v>
+      </c>
+      <c r="G10" s="10"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
       <c r="J10" s="27"/>
@@ -2595,8 +2591,8 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
       <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
       <c r="V10" s="27"/>
       <c r="W10" s="27"/>
       <c r="X10" s="27"/>
@@ -2612,22 +2608,25 @@
       <c r="AH10" s="27"/>
       <c r="AI10" s="27"/>
     </row>
-    <row r="11" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="10" t="str">
+    <row r="11" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="63">
+        <v>44877</v>
+      </c>
+      <c r="F11" s="63">
+        <f>E11+4</f>
+        <v>44881</v>
+      </c>
+      <c r="G11" s="10">
         <f t="shared" si="3"/>
-        <v/>
+        <v>5</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
@@ -2658,25 +2657,22 @@
       <c r="AH11" s="27"/>
       <c r="AI11" s="27"/>
     </row>
-    <row r="12" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="E12" s="66">
-        <v>44868</v>
-      </c>
-      <c r="F12" s="66">
-        <f>E12+4</f>
-        <v>44872</v>
-      </c>
-      <c r="G12" s="10">
+    <row r="12" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
@@ -2707,25 +2703,25 @@
       <c r="AH12" s="27"/>
       <c r="AI12" s="27"/>
     </row>
-    <row r="13" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
+    <row r="13" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
       <c r="B13" s="56" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="16">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E13" s="66">
         <v>44868</v>
       </c>
       <c r="F13" s="66">
-        <f>E13+5</f>
-        <v>44873</v>
+        <f>E13+4</f>
+        <v>44872</v>
       </c>
       <c r="G13" s="10">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
@@ -2739,8 +2735,8 @@
       <c r="Q13" s="27"/>
       <c r="R13" s="27"/>
       <c r="S13" s="27"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
       <c r="V13" s="27"/>
       <c r="W13" s="27"/>
       <c r="X13" s="27"/>
@@ -2756,25 +2752,25 @@
       <c r="AH13" s="27"/>
       <c r="AI13" s="27"/>
     </row>
-    <row r="14" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
-      <c r="B14" s="56" t="s">
-        <v>50</v>
+      <c r="B14" s="85" t="s">
+        <v>62</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="66">
-        <f>F13</f>
+        <v>44868</v>
+      </c>
+      <c r="F14" s="66">
+        <f>E14+5</f>
         <v>44873</v>
-      </c>
-      <c r="F14" s="66">
-        <v>44874</v>
       </c>
       <c r="G14" s="10">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -2788,8 +2784,8 @@
       <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
       <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
       <c r="V14" s="27"/>
       <c r="W14" s="27"/>
       <c r="X14" s="27"/>
@@ -2805,26 +2801,25 @@
       <c r="AH14" s="27"/>
       <c r="AI14" s="27"/>
     </row>
-    <row r="15" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
-      <c r="B15" s="56" t="s">
-        <v>51</v>
+      <c r="B15" s="85" t="s">
+        <v>63</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="16">
         <v>0</v>
       </c>
       <c r="E15" s="66">
-        <f>E14</f>
+        <f>F14</f>
         <v>44873</v>
       </c>
       <c r="F15" s="66">
-        <f>E15+2</f>
-        <v>44875</v>
+        <v>44874</v>
       </c>
       <c r="G15" s="10">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -2842,7 +2837,7 @@
       <c r="U15" s="27"/>
       <c r="V15" s="27"/>
       <c r="W15" s="27"/>
-      <c r="X15" s="28"/>
+      <c r="X15" s="27"/>
       <c r="Y15" s="27"/>
       <c r="Z15" s="27"/>
       <c r="AA15" s="27"/>
@@ -2855,25 +2850,26 @@
       <c r="AH15" s="27"/>
       <c r="AI15" s="27"/>
     </row>
-    <row r="16" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
-      <c r="B16" s="56" t="s">
-        <v>54</v>
+      <c r="B16" s="85" t="s">
+        <v>64</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="16">
         <v>0</v>
       </c>
       <c r="E16" s="66">
-        <v>44879</v>
+        <f>E15</f>
+        <v>44873</v>
       </c>
       <c r="F16" s="66">
-        <f>E16+3</f>
-        <v>44882</v>
+        <f>E16+2</f>
+        <v>44875</v>
       </c>
       <c r="G16" s="10">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
@@ -2891,7 +2887,7 @@
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
       <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
+      <c r="X16" s="28"/>
       <c r="Y16" s="27"/>
       <c r="Z16" s="27"/>
       <c r="AA16" s="27"/>
@@ -2904,19 +2900,20 @@
       <c r="AH16" s="27"/>
       <c r="AI16" s="27"/>
     </row>
-    <row r="17" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="56" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C17" s="49"/>
       <c r="D17" s="16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E17" s="66">
         <v>44879</v>
       </c>
       <c r="F17" s="66">
+        <f>E17+3</f>
         <v>44882</v>
       </c>
       <c r="G17" s="10">
@@ -2952,22 +2949,24 @@
       <c r="AH17" s="27"/>
       <c r="AI17" s="27"/>
     </row>
-    <row r="18" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="10" t="str">
+    <row r="18" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="49"/>
+      <c r="D18" s="16">
+        <v>0</v>
+      </c>
+      <c r="E18" s="66">
+        <v>44879</v>
+      </c>
+      <c r="F18" s="66">
+        <v>44882</v>
+      </c>
+      <c r="G18" s="10">
         <f t="shared" si="3"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
@@ -2998,24 +2997,22 @@
       <c r="AH18" s="27"/>
       <c r="AI18" s="27"/>
     </row>
-    <row r="19" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="84" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="69">
-        <v>44868</v>
-      </c>
-      <c r="F19" s="69">
-        <v>44872</v>
-      </c>
-      <c r="G19" s="10">
+    <row r="19" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
@@ -3046,25 +3043,24 @@
       <c r="AH19" s="27"/>
       <c r="AI19" s="27"/>
     </row>
-    <row r="20" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
-      <c r="B20" s="84" t="s">
-        <v>62</v>
+      <c r="B20" s="80" t="s">
+        <v>57</v>
       </c>
       <c r="C20" s="51"/>
       <c r="D20" s="19">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E20" s="69">
-        <f>F19+1</f>
-        <v>44873</v>
+        <v>44868</v>
       </c>
       <c r="F20" s="69">
-        <v>44879</v>
+        <v>44872</v>
       </c>
       <c r="G20" s="10">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
@@ -3095,26 +3091,24 @@
       <c r="AH20" s="27"/>
       <c r="AI20" s="27"/>
     </row>
-    <row r="21" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
-      <c r="B21" s="84" t="s">
-        <v>63</v>
+      <c r="B21" s="80" t="s">
+        <v>65</v>
       </c>
       <c r="C21" s="51"/>
       <c r="D21" s="19">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E21" s="69">
-        <f>E20+5</f>
-        <v>44878</v>
+        <v>44872</v>
       </c>
       <c r="F21" s="69">
-        <f>E21+5</f>
-        <v>44883</v>
+        <v>44872</v>
       </c>
       <c r="G21" s="10">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
@@ -3145,27 +3139,22 @@
       <c r="AH21" s="27"/>
       <c r="AI21" s="27"/>
     </row>
-    <row r="22" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
-      <c r="B22" s="84" t="s">
-        <v>64</v>
+      <c r="B22" s="80" t="s">
+        <v>66</v>
       </c>
       <c r="C22" s="51"/>
       <c r="D22" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E22" s="69">
-        <f>F21+1</f>
-        <v>44884</v>
+        <v>44872</v>
       </c>
       <c r="F22" s="69">
-        <f>E22+4</f>
-        <v>44888</v>
-      </c>
-      <c r="G22" s="10">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
+        <v>44880</v>
+      </c>
+      <c r="G22" s="10"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
@@ -3195,25 +3184,25 @@
       <c r="AH22" s="27"/>
       <c r="AI22" s="27"/>
     </row>
-    <row r="23" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
-      <c r="B23" s="84" t="s">
-        <v>65</v>
+      <c r="B23" s="80" t="s">
+        <v>58</v>
       </c>
       <c r="C23" s="51"/>
       <c r="D23" s="19">
         <v>0</v>
       </c>
       <c r="E23" s="69">
-        <v>44871</v>
+        <f>F20+1</f>
+        <v>44873</v>
       </c>
       <c r="F23" s="69">
-        <f>E23+4</f>
-        <v>44875</v>
+        <v>44879</v>
       </c>
       <c r="G23" s="10">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
@@ -3244,22 +3233,26 @@
       <c r="AH23" s="27"/>
       <c r="AI23" s="27"/>
     </row>
-    <row r="24" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="52" t="s">
+    <row r="24" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="40"/>
+      <c r="B24" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="10" t="str">
+      <c r="C24" s="51"/>
+      <c r="D24" s="19">
+        <v>0</v>
+      </c>
+      <c r="E24" s="69">
+        <f>E23+5</f>
+        <v>44878</v>
+      </c>
+      <c r="F24" s="69">
+        <f>E24+5</f>
+        <v>44883</v>
+      </c>
+      <c r="G24" s="10">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
@@ -3290,22 +3283,26 @@
       <c r="AH24" s="27"/>
       <c r="AI24" s="27"/>
     </row>
-    <row r="25" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
-      <c r="B25" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="72">
-        <v>44885</v>
-      </c>
-      <c r="F25" s="72">
+      <c r="B25" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="51"/>
+      <c r="D25" s="19">
+        <v>0</v>
+      </c>
+      <c r="E25" s="69">
+        <f>F24+1</f>
+        <v>44884</v>
+      </c>
+      <c r="F25" s="69">
+        <f>E25+4</f>
         <v>44888</v>
       </c>
       <c r="G25" s="10">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
@@ -3336,22 +3333,25 @@
       <c r="AH25" s="27"/>
       <c r="AI25" s="27"/>
     </row>
-    <row r="26" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
-      <c r="B26" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="72">
-        <v>44888</v>
-      </c>
-      <c r="F26" s="72">
-        <v>44891</v>
+      <c r="B26" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="51"/>
+      <c r="D26" s="19">
+        <v>0</v>
+      </c>
+      <c r="E26" s="69">
+        <v>44879</v>
+      </c>
+      <c r="F26" s="69">
+        <f>E26+4</f>
+        <v>44883</v>
       </c>
       <c r="G26" s="10">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
@@ -3382,22 +3382,22 @@
       <c r="AH26" s="27"/>
       <c r="AI26" s="27"/>
     </row>
-    <row r="27" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="72">
-        <v>44892</v>
-      </c>
-      <c r="F27" s="72">
-        <v>44893</v>
-      </c>
-      <c r="G27" s="10">
+    <row r="27" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
@@ -3428,22 +3428,22 @@
       <c r="AH27" s="27"/>
       <c r="AI27" s="27"/>
     </row>
-    <row r="28" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="57" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C28" s="53"/>
       <c r="D28" s="22"/>
       <c r="E28" s="72">
-        <v>44894</v>
+        <v>44885</v>
       </c>
       <c r="F28" s="72">
-        <v>44895</v>
+        <v>44888</v>
       </c>
       <c r="G28" s="10">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
@@ -3474,22 +3474,22 @@
       <c r="AH28" s="27"/>
       <c r="AI28" s="27"/>
     </row>
-    <row r="29" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="57" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C29" s="53"/>
       <c r="D29" s="22"/>
       <c r="E29" s="72">
-        <v>44894</v>
+        <v>44888</v>
       </c>
       <c r="F29" s="72">
-        <v>44895</v>
+        <v>44891</v>
       </c>
       <c r="G29" s="10">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
@@ -3520,18 +3520,22 @@
       <c r="AH29" s="27"/>
       <c r="AI29" s="27"/>
     </row>
-    <row r="30" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="10" t="str">
+    <row r="30" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="53"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="72">
+        <v>44892</v>
+      </c>
+      <c r="F30" s="72">
+        <v>44893</v>
+      </c>
+      <c r="G30" s="10">
         <f t="shared" si="3"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
@@ -3562,56 +3566,190 @@
       <c r="AH30" s="27"/>
       <c r="AI30" s="27"/>
     </row>
-    <row r="31" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="26" t="str">
+    <row r="31" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
+      <c r="B31" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="53"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="72">
+        <v>44894</v>
+      </c>
+      <c r="F31" s="72">
+        <v>44895</v>
+      </c>
+      <c r="G31" s="10">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="27"/>
+      <c r="AH31" s="27"/>
+      <c r="AI31" s="27"/>
+    </row>
+    <row r="32" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="53"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="72">
+        <v>44894</v>
+      </c>
+      <c r="F32" s="72">
+        <v>44895</v>
+      </c>
+      <c r="G32" s="10">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
+      <c r="AE32" s="27"/>
+      <c r="AF32" s="27"/>
+      <c r="AG32" s="27"/>
+      <c r="AH32" s="27"/>
+      <c r="AI32" s="27"/>
+    </row>
+    <row r="33" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="58"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="29"/>
-      <c r="AB31" s="29"/>
-      <c r="AC31" s="29"/>
-      <c r="AD31" s="29"/>
-      <c r="AE31" s="29"/>
-      <c r="AF31" s="29"/>
-      <c r="AG31" s="29"/>
-      <c r="AH31" s="29"/>
-      <c r="AI31" s="29"/>
-    </row>
-    <row r="33" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="7"/>
-      <c r="F33" s="42"/>
-    </row>
-    <row r="34" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="8"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27"/>
+      <c r="AE33" s="27"/>
+      <c r="AF33" s="27"/>
+      <c r="AG33" s="27"/>
+      <c r="AH33" s="27"/>
+      <c r="AI33" s="27"/>
+    </row>
+    <row r="34" spans="1:35" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="29"/>
+      <c r="AE34" s="29"/>
+      <c r="AF34" s="29"/>
+      <c r="AG34" s="29"/>
+      <c r="AH34" s="29"/>
+      <c r="AI34" s="29"/>
+    </row>
+    <row r="36" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="7"/>
+      <c r="F36" s="42"/>
+    </row>
+    <row r="37" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3621,7 +3759,7 @@
     <mergeCell ref="V1:AB1"/>
     <mergeCell ref="AC1:AI1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4:D31">
+  <conditionalFormatting sqref="D4:D34">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -3635,17 +3773,17 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:AI31">
+  <conditionalFormatting sqref="H2:AI34">
     <cfRule type="expression" dxfId="5" priority="33">
       <formula>AND(TODAY()&gt;=H$2,TODAY()&lt;I$2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AI31">
+  <conditionalFormatting sqref="AI2:AI34">
     <cfRule type="expression" dxfId="4" priority="41" stopIfTrue="1">
       <formula>AND(TODAY()&gt;=AI$2,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:AI31">
+  <conditionalFormatting sqref="H4:AI34">
     <cfRule type="expression" dxfId="3" priority="27">
       <formula>AND(task_start&lt;=H$2,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$2)</formula>
     </cfRule>
@@ -3653,7 +3791,7 @@
       <formula>AND(task_end&gt;=H$2,task_start&lt;I$2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI4:AI31">
+  <conditionalFormatting sqref="AI4:AI34">
     <cfRule type="expression" dxfId="1" priority="44">
       <formula>AND(task_start&lt;=AI$2,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AI$2)</formula>
     </cfRule>
@@ -3663,12 +3801,12 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F15 F21 E21" formula="1"/>
+    <ignoredError sqref="F16 F24 E24" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -3686,7 +3824,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D4:D31</xm:sqref>
+          <xm:sqref>D4:D34</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3695,101 +3833,101 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="30" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="87.1640625" style="30" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="32" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="32" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="31"/>
+    </row>
+    <row r="3" spans="1:2" s="36" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="31"/>
-    </row>
-    <row r="3" spans="1:2" s="36" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="B3" s="37"/>
+    </row>
+    <row r="4" spans="1:2" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="37"/>
-    </row>
-    <row r="4" spans="1:2" s="33" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="34" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="30" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="39" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="30" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+    <row r="8" spans="1:2" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="33" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A8" s="34" t="s">
+    <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+    <row r="10" spans="1:2" s="30" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="30" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+    <row r="11" spans="1:2" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="33" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A11" s="34" t="s">
+    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
+    <row r="13" spans="1:2" s="30" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="30" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+    <row r="14" spans="1:2" s="33" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="33" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="34" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1"/>
-    <hyperlink ref="A10" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -3798,12 +3936,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4095,29 +4244,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4144,20 +4293,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>